--- a/outputs/prophet_sales_forecast.xlsx
+++ b/outputs/prophet_sales_forecast.xlsx
@@ -461,7 +461,7 @@
         <v>42736</v>
       </c>
       <c r="B2" t="n">
-        <v>1109338.945477383</v>
+        <v>1109627.192877393</v>
       </c>
       <c r="C2" t="n">
         <v>12082.500997</v>
@@ -472,7 +472,7 @@
         <v>42737</v>
       </c>
       <c r="B3" t="n">
-        <v>890367.197523601</v>
+        <v>890694.0274941756</v>
       </c>
       <c r="C3" t="n">
         <v>1402306.370834</v>
@@ -483,7 +483,7 @@
         <v>42738</v>
       </c>
       <c r="B4" t="n">
-        <v>833294.9624628345</v>
+        <v>833691.8149491597</v>
       </c>
       <c r="C4" t="n">
         <v>1104377.0798245</v>
@@ -494,7 +494,7 @@
         <v>42739</v>
       </c>
       <c r="B5" t="n">
-        <v>839746.5150926058</v>
+        <v>839933.6507602037</v>
       </c>
       <c r="C5" t="n">
         <v>990093.4637420001</v>
@@ -505,7 +505,7 @@
         <v>42740</v>
       </c>
       <c r="B6" t="n">
-        <v>747084.7997681726</v>
+        <v>747421.5396879939</v>
       </c>
       <c r="C6" t="n">
         <v>777620.9540695</v>
@@ -516,7 +516,7 @@
         <v>42741</v>
       </c>
       <c r="B7" t="n">
-        <v>801325.7320970254</v>
+        <v>801487.907464959</v>
       </c>
       <c r="C7" t="n">
         <v>839600.237989</v>
@@ -527,7 +527,7 @@
         <v>42742</v>
       </c>
       <c r="B8" t="n">
-        <v>974589.9024717682</v>
+        <v>974465.8248910683</v>
       </c>
       <c r="C8" t="n">
         <v>1103806.298949</v>
@@ -538,7 +538,7 @@
         <v>42743</v>
       </c>
       <c r="B9" t="n">
-        <v>1022487.942033135</v>
+        <v>1022467.17204137</v>
       </c>
       <c r="C9" t="n">
         <v>1192543.750978</v>
@@ -549,7 +549,7 @@
         <v>42744</v>
       </c>
       <c r="B10" t="n">
-        <v>806307.7539963822</v>
+        <v>806557.0460587216</v>
       </c>
       <c r="C10" t="n">
         <v>793724.8969065</v>
@@ -560,7 +560,7 @@
         <v>42745</v>
       </c>
       <c r="B11" t="n">
-        <v>753080.3695139573</v>
+        <v>753648.1355415398</v>
       </c>
       <c r="C11" t="n">
         <v>742635.5692609</v>
@@ -571,7 +571,7 @@
         <v>42746</v>
       </c>
       <c r="B12" t="n">
-        <v>764301.305136692</v>
+        <v>764920.2772665785</v>
       </c>
       <c r="C12" t="n">
         <v>770742.690065</v>
@@ -582,7 +582,7 @@
         <v>42747</v>
       </c>
       <c r="B13" t="n">
-        <v>677187.6020154377</v>
+        <v>678224.735374402</v>
       </c>
       <c r="C13" t="n">
         <v>629635.794004</v>
@@ -593,7 +593,7 @@
         <v>42748</v>
       </c>
       <c r="B14" t="n">
-        <v>737595.9915015729</v>
+        <v>738729.6854382149</v>
       </c>
       <c r="C14" t="n">
         <v>768898.9443881999</v>
@@ -604,7 +604,7 @@
         <v>42749</v>
       </c>
       <c r="B15" t="n">
-        <v>917478.7487497914</v>
+        <v>918594.7032654767</v>
       </c>
       <c r="C15" t="n">
         <v>1021050.536226</v>
@@ -615,7 +615,7 @@
         <v>42750</v>
       </c>
       <c r="B16" t="n">
-        <v>972273.3857824618</v>
+        <v>973753.3742068311</v>
       </c>
       <c r="C16" t="n">
         <v>1175725.165838</v>
@@ -626,7 +626,7 @@
         <v>42751</v>
       </c>
       <c r="B17" t="n">
-        <v>763094.2738428474</v>
+        <v>765092.2104065684</v>
       </c>
       <c r="C17" t="n">
         <v>824488.666175</v>
@@ -637,7 +637,7 @@
         <v>42752</v>
       </c>
       <c r="B18" t="n">
-        <v>716802.8401599877</v>
+        <v>719349.4820023329</v>
       </c>
       <c r="C18" t="n">
         <v>750836.542952</v>
@@ -648,7 +648,7 @@
         <v>42753</v>
       </c>
       <c r="B19" t="n">
-        <v>734733.1042359077</v>
+        <v>737539.0631689468</v>
       </c>
       <c r="C19" t="n">
         <v>782656.0246723</v>
@@ -659,7 +659,7 @@
         <v>42754</v>
       </c>
       <c r="B20" t="n">
-        <v>653952.6268801393</v>
+        <v>657358.7234579199</v>
       </c>
       <c r="C20" t="n">
         <v>606949.7448793</v>
@@ -670,7 +670,7 @@
         <v>42755</v>
       </c>
       <c r="B21" t="n">
-        <v>720184.2176122263</v>
+        <v>723839.2452629781</v>
       </c>
       <c r="C21" t="n">
         <v>725703.6910875</v>
@@ -681,7 +681,7 @@
         <v>42756</v>
       </c>
       <c r="B22" t="n">
-        <v>905264.873449787</v>
+        <v>909022.0763961702</v>
       </c>
       <c r="C22" t="n">
         <v>1072721.724905</v>
@@ -692,7 +692,7 @@
         <v>42757</v>
       </c>
       <c r="B23" t="n">
-        <v>964538.0247113914</v>
+        <v>968744.5557731371</v>
       </c>
       <c r="C23" t="n">
         <v>1148214.358454</v>
@@ -703,7 +703,7 @@
         <v>42758</v>
       </c>
       <c r="B24" t="n">
-        <v>759047.1165144598</v>
+        <v>763820.836932636</v>
       </c>
       <c r="C24" t="n">
         <v>798133.612125</v>
@@ -714,7 +714,7 @@
         <v>42759</v>
       </c>
       <c r="B25" t="n">
-        <v>715607.1262051525</v>
+        <v>720942.0693744886</v>
       </c>
       <c r="C25" t="n">
         <v>721275.774781</v>
@@ -725,7 +725,7 @@
         <v>42760</v>
       </c>
       <c r="B26" t="n">
-        <v>735530.7542225575</v>
+        <v>741100.9103183168</v>
       </c>
       <c r="C26" t="n">
         <v>744342.5929227</v>
@@ -736,7 +736,7 @@
         <v>42761</v>
       </c>
       <c r="B27" t="n">
-        <v>655889.3519985274</v>
+        <v>661999.7874974465</v>
       </c>
       <c r="C27" t="n">
         <v>576515.5369877</v>
@@ -747,7 +747,7 @@
         <v>42762</v>
       </c>
       <c r="B28" t="n">
-        <v>722433.9409205057</v>
+        <v>728699.3024865475</v>
       </c>
       <c r="C28" t="n">
         <v>722113.958837</v>
@@ -758,7 +758,7 @@
         <v>42763</v>
       </c>
       <c r="B29" t="n">
-        <v>907052.8215194296</v>
+        <v>913294.5104206792</v>
       </c>
       <c r="C29" t="n">
         <v>977850.40585</v>
@@ -769,7 +769,7 @@
         <v>42764</v>
       </c>
       <c r="B30" t="n">
-        <v>965161.8915005446</v>
+        <v>971698.1582679431</v>
       </c>
       <c r="C30" t="n">
         <v>1075166.993043</v>
@@ -780,7 +780,7 @@
         <v>42765</v>
       </c>
       <c r="B31" t="n">
-        <v>757895.7599074132</v>
+        <v>764819.0665800625</v>
       </c>
       <c r="C31" t="n">
         <v>698123.768037</v>
@@ -791,7 +791,7 @@
         <v>42766</v>
       </c>
       <c r="B32" t="n">
-        <v>712176.3301183205</v>
+        <v>719459.2891272622</v>
       </c>
       <c r="C32" t="n">
         <v>778222.285925</v>
@@ -802,7 +802,7 @@
         <v>42767</v>
       </c>
       <c r="B33" t="n">
-        <v>729435.6734913106</v>
+        <v>736735.2096114968</v>
       </c>
       <c r="C33" t="n">
         <v>961777.382874</v>
@@ -813,7 +813,7 @@
         <v>42768</v>
       </c>
       <c r="B34" t="n">
-        <v>646873.3510147036</v>
+        <v>654482.0923621802</v>
       </c>
       <c r="C34" t="n">
         <v>748882.732615</v>
@@ -824,7 +824,7 @@
         <v>42769</v>
       </c>
       <c r="B35" t="n">
-        <v>710373.6375957772</v>
+        <v>717898.5798412604</v>
       </c>
       <c r="C35" t="n">
         <v>834667.1519293</v>
@@ -835,7 +835,7 @@
         <v>42770</v>
       </c>
       <c r="B36" t="n">
-        <v>891959.2528202009</v>
+        <v>899218.9803248118</v>
       </c>
       <c r="C36" t="n">
         <v>1132788.541413</v>
@@ -846,7 +846,7 @@
         <v>42771</v>
       </c>
       <c r="B37" t="n">
-        <v>947177.8226937385</v>
+        <v>954492.5366967807</v>
       </c>
       <c r="C37" t="n">
         <v>1151987.631095</v>
@@ -857,7 +857,7 @@
         <v>42772</v>
       </c>
       <c r="B38" t="n">
-        <v>737289.2638604947</v>
+        <v>744757.9683276889</v>
       </c>
       <c r="C38" t="n">
         <v>786672.394181</v>
@@ -868,7 +868,7 @@
         <v>42773</v>
       </c>
       <c r="B39" t="n">
-        <v>689330.8627376398</v>
+        <v>696937.0229200128</v>
       </c>
       <c r="C39" t="n">
         <v>739431.213302</v>
@@ -879,7 +879,7 @@
         <v>42774</v>
       </c>
       <c r="B40" t="n">
-        <v>704836.963989737</v>
+        <v>712252.2926746304</v>
       </c>
       <c r="C40" t="n">
         <v>783605.377185</v>
@@ -890,7 +890,7 @@
         <v>42775</v>
       </c>
       <c r="B41" t="n">
-        <v>621093.5087044516</v>
+        <v>628628.8969938046</v>
       </c>
       <c r="C41" t="n">
         <v>624387.4878990001</v>
@@ -901,7 +901,7 @@
         <v>42776</v>
       </c>
       <c r="B42" t="n">
-        <v>684052.9481767715</v>
+        <v>691336.5978224101</v>
       </c>
       <c r="C42" t="n">
         <v>752207.2398545</v>
@@ -912,7 +912,7 @@
         <v>42777</v>
       </c>
       <c r="B43" t="n">
-        <v>865786.1948198756</v>
+        <v>872660.250324332</v>
       </c>
       <c r="C43" t="n">
         <v>944924.65301</v>
@@ -923,7 +923,7 @@
         <v>42778</v>
       </c>
       <c r="B44" t="n">
-        <v>921867.8773907443</v>
+        <v>928677.8237538891</v>
       </c>
       <c r="C44" t="n">
         <v>1074820.900014</v>
@@ -934,7 +934,7 @@
         <v>42779</v>
       </c>
       <c r="B45" t="n">
-        <v>713563.1186645441</v>
+        <v>720434.3119566389</v>
       </c>
       <c r="C45" t="n">
         <v>794314.4320675</v>
@@ -945,7 +945,7 @@
         <v>42780</v>
       </c>
       <c r="B46" t="n">
-        <v>667892.6180402156</v>
+        <v>674835.2808019789</v>
       </c>
       <c r="C46" t="n">
         <v>642613.187069</v>
@@ -956,7 +956,7 @@
         <v>42781</v>
       </c>
       <c r="B47" t="n">
-        <v>686352.9468210624</v>
+        <v>693065.3001517628</v>
       </c>
       <c r="C47" t="n">
         <v>745780.355084</v>
@@ -967,7 +967,7 @@
         <v>42782</v>
       </c>
       <c r="B48" t="n">
-        <v>606172.2734959616</v>
+        <v>612990.8390308809</v>
       </c>
       <c r="C48" t="n">
         <v>645968.2570671</v>
@@ -978,7 +978,7 @@
         <v>42783</v>
       </c>
       <c r="B49" t="n">
-        <v>673227.0063125347</v>
+        <v>679804.1505484143</v>
       </c>
       <c r="C49" t="n">
         <v>758855.71279</v>
@@ -989,7 +989,7 @@
         <v>42784</v>
       </c>
       <c r="B50" t="n">
-        <v>859495.9616809103</v>
+        <v>865695.9949552871</v>
       </c>
       <c r="C50" t="n">
         <v>1063394.844003</v>
@@ -1000,7 +1000,7 @@
         <v>42785</v>
       </c>
       <c r="B51" t="n">
-        <v>920448.2598520854</v>
+        <v>926636.368268778</v>
       </c>
       <c r="C51" t="n">
         <v>858897.1230135</v>
@@ -1011,7 +1011,7 @@
         <v>42786</v>
       </c>
       <c r="B52" t="n">
-        <v>717233.0894174267</v>
+        <v>723551.4773207738</v>
       </c>
       <c r="C52" t="n">
         <v>759120.0599607</v>
@@ -1022,7 +1022,7 @@
         <v>42787</v>
       </c>
       <c r="B53" t="n">
-        <v>676748.037891153</v>
+        <v>683220.6210742968</v>
       </c>
       <c r="C53" t="n">
         <v>717807.6770255</v>
@@ -1033,7 +1033,7 @@
         <v>42788</v>
       </c>
       <c r="B54" t="n">
-        <v>700362.8046812799</v>
+        <v>706698.131952954</v>
       </c>
       <c r="C54" t="n">
         <v>739388.0344027</v>
@@ -1044,7 +1044,7 @@
         <v>42789</v>
       </c>
       <c r="B55" t="n">
-        <v>625178.4187030983</v>
+        <v>631719.8582401157</v>
       </c>
       <c r="C55" t="n">
         <v>675578.500156</v>
@@ -1055,7 +1055,7 @@
         <v>42790</v>
       </c>
       <c r="B56" t="n">
-        <v>696947.3518374789</v>
+        <v>703350.6154237092</v>
       </c>
       <c r="C56" t="n">
         <v>816197.4989520001</v>
@@ -1066,7 +1066,7 @@
         <v>42791</v>
       </c>
       <c r="B57" t="n">
-        <v>887531.0423376636</v>
+        <v>893660.3578783994</v>
       </c>
       <c r="C57" t="n">
         <v>1026011.2228075</v>
@@ -1077,7 +1077,7 @@
         <v>42792</v>
       </c>
       <c r="B58" t="n">
-        <v>952290.9393920916</v>
+        <v>958508.1456135523</v>
       </c>
       <c r="C58" t="n">
         <v>775708.987978</v>
@@ -1088,7 +1088,7 @@
         <v>42793</v>
       </c>
       <c r="B59" t="n">
-        <v>752281.1267868828</v>
+        <v>758722.0610349745</v>
       </c>
       <c r="C59" t="n">
         <v>744956.948138</v>
@@ -1099,7 +1099,7 @@
         <v>42794</v>
       </c>
       <c r="B60" t="n">
-        <v>714319.1481921889</v>
+        <v>720998.6587416042</v>
       </c>
       <c r="C60" t="n">
         <v>949366.8290504999</v>
@@ -1110,7 +1110,7 @@
         <v>42795</v>
       </c>
       <c r="B61" t="n">
-        <v>739711.7864224194</v>
+        <v>746327.0363346597</v>
       </c>
       <c r="C61" t="n">
         <v>1008521.709962</v>
@@ -1121,7 +1121,7 @@
         <v>42796</v>
       </c>
       <c r="B62" t="n">
-        <v>665515.8674150939</v>
+        <v>672396.9542949885</v>
       </c>
       <c r="C62" t="n">
         <v>836225.179072</v>
@@ -1132,7 +1132,7 @@
         <v>42797</v>
       </c>
       <c r="B63" t="n">
-        <v>737459.4423100946</v>
+        <v>744247.3938483496</v>
       </c>
       <c r="C63" t="n">
         <v>882639.7762739999</v>
@@ -1143,7 +1143,7 @@
         <v>42798</v>
       </c>
       <c r="B64" t="n">
-        <v>927399.838495783</v>
+        <v>933943.280219818</v>
       </c>
       <c r="C64" t="n">
         <v>1125736.3470592</v>
@@ -1154,7 +1154,7 @@
         <v>42799</v>
       </c>
       <c r="B65" t="n">
-        <v>990714.6826284714</v>
+        <v>997359.4374485479</v>
       </c>
       <c r="C65" t="n">
         <v>1196983.690104</v>
@@ -1165,7 +1165,7 @@
         <v>42800</v>
       </c>
       <c r="B66" t="n">
-        <v>788493.9604515544</v>
+        <v>795359.9366387412</v>
       </c>
       <c r="C66" t="n">
         <v>790143.2410905</v>
@@ -1176,7 +1176,7 @@
         <v>42801</v>
       </c>
       <c r="B67" t="n">
-        <v>747609.7575326065</v>
+        <v>754696.4427011111</v>
       </c>
       <c r="C67" t="n">
         <v>761866.729975</v>
@@ -1187,7 +1187,7 @@
         <v>42802</v>
       </c>
       <c r="B68" t="n">
-        <v>769440.4687952927</v>
+        <v>776430.6839039938</v>
       </c>
       <c r="C68" t="n">
         <v>781046.6619577</v>
@@ -1198,7 +1198,7 @@
         <v>42803</v>
       </c>
       <c r="B69" t="n">
-        <v>691129.59589604</v>
+        <v>698340.5217570881</v>
       </c>
       <c r="C69" t="n">
         <v>653901.1919827</v>
@@ -1209,7 +1209,7 @@
         <v>42804</v>
       </c>
       <c r="B70" t="n">
-        <v>758504.5454366679</v>
+        <v>765566.0712285683</v>
       </c>
       <c r="C70" t="n">
         <v>773855.3068500001</v>
@@ -1220,7 +1220,7 @@
         <v>42805</v>
       </c>
       <c r="B71" t="n">
-        <v>943531.9879743035</v>
+        <v>950283.669526753</v>
       </c>
       <c r="C71" t="n">
         <v>1001174.4340065</v>
@@ -1231,7 +1231,7 @@
         <v>42806</v>
       </c>
       <c r="B72" t="n">
-        <v>1001705.957437633</v>
+        <v>1008486.838166111</v>
       </c>
       <c r="C72" t="n">
         <v>1146006.826973</v>
@@ -1242,7 +1242,7 @@
         <v>42807</v>
       </c>
       <c r="B73" t="n">
-        <v>794236.8376238463</v>
+        <v>801162.4841403784</v>
       </c>
       <c r="C73" t="n">
         <v>754390.380036</v>
@@ -1253,7 +1253,7 @@
         <v>42808</v>
       </c>
       <c r="B74" t="n">
-        <v>748117.9647242021</v>
+        <v>755186.032276953</v>
       </c>
       <c r="C74" t="n">
         <v>700998.0346447</v>
@@ -1264,7 +1264,7 @@
         <v>42809</v>
       </c>
       <c r="B75" t="n">
-        <v>764846.7191340644</v>
+        <v>771740.7006892433</v>
       </c>
       <c r="C75" t="n">
         <v>815621.887369</v>
@@ -1275,7 +1275,7 @@
         <v>42810</v>
       </c>
       <c r="B76" t="n">
-        <v>681680.3092171275</v>
+        <v>688720.4826532063</v>
       </c>
       <c r="C76" t="n">
         <v>699108.166824</v>
@@ -1286,7 +1286,7 @@
         <v>42811</v>
       </c>
       <c r="B77" t="n">
-        <v>744551.7395542943</v>
+        <v>751373.3665353742</v>
       </c>
       <c r="C77" t="n">
         <v>812306.7742700001</v>
@@ -1297,7 +1297,7 @@
         <v>42812</v>
       </c>
       <c r="B78" t="n">
-        <v>925522.5970086608</v>
+        <v>931972.6673069499</v>
       </c>
       <c r="C78" t="n">
         <v>1038906.566154</v>
@@ -1308,7 +1308,7 @@
         <v>42813</v>
       </c>
       <c r="B79" t="n">
-        <v>980168.8994359626</v>
+        <v>986595.6813107908</v>
       </c>
       <c r="C79" t="n">
         <v>1157140.638587</v>
@@ -1319,7 +1319,7 @@
         <v>42814</v>
       </c>
       <c r="B80" t="n">
-        <v>769768.2091699025</v>
+        <v>776297.9670333588</v>
       </c>
       <c r="C80" t="n">
         <v>826428.90991</v>
@@ -1330,7 +1330,7 @@
         <v>42815</v>
       </c>
       <c r="B81" t="n">
-        <v>721364.7844670254</v>
+        <v>728006.9893761883</v>
       </c>
       <c r="C81" t="n">
         <v>746620.926177</v>
@@ -1341,7 +1341,7 @@
         <v>42816</v>
       </c>
       <c r="B82" t="n">
-        <v>736489.6742107763</v>
+        <v>742940.3722510393</v>
       </c>
       <c r="C82" t="n">
         <v>767880.804934</v>
@@ -1352,7 +1352,7 @@
         <v>42817</v>
       </c>
       <c r="B83" t="n">
-        <v>652415.9776411194</v>
+        <v>659008.3424457852</v>
       </c>
       <c r="C83" t="n">
         <v>670848.010029</v>
@@ -1363,7 +1363,7 @@
         <v>42818</v>
       </c>
       <c r="B84" t="n">
-        <v>715074.7675144993</v>
+        <v>721456.9024374087</v>
       </c>
       <c r="C84" t="n">
         <v>787914.125515</v>
@@ -1374,7 +1374,7 @@
         <v>42819</v>
       </c>
       <c r="B85" t="n">
-        <v>896508.3026982148</v>
+        <v>902539.5981852064</v>
       </c>
       <c r="C85" t="n">
         <v>1038139.316887</v>
@@ -1385,7 +1385,7 @@
         <v>42820</v>
       </c>
       <c r="B86" t="n">
-        <v>952256.7549395195</v>
+        <v>958297.0729694958</v>
       </c>
       <c r="C86" t="n">
         <v>1101557.476706</v>
@@ -1396,7 +1396,7 @@
         <v>42821</v>
       </c>
       <c r="B87" t="n">
-        <v>743546.6198581165</v>
+        <v>749732.6771162746</v>
       </c>
       <c r="C87" t="n">
         <v>784103.265042</v>
@@ -1407,7 +1407,7 @@
         <v>42822</v>
       </c>
       <c r="B88" t="n">
-        <v>697357.5423469094</v>
+        <v>703707.8269824827</v>
       </c>
       <c r="C88" t="n">
         <v>702943.9485770001</v>
@@ -1418,7 +1418,7 @@
         <v>42823</v>
       </c>
       <c r="B89" t="n">
-        <v>715144.4091834018</v>
+        <v>721362.304156206</v>
       </c>
       <c r="C89" t="n">
         <v>824632.985033</v>
@@ -1429,7 +1429,7 @@
         <v>42824</v>
       </c>
       <c r="B90" t="n">
-        <v>634094.8702036405</v>
+        <v>640519.0158232837</v>
       </c>
       <c r="C90" t="n">
         <v>637624.340998</v>
@@ -1440,7 +1440,7 @@
         <v>42825</v>
       </c>
       <c r="B91" t="n">
-        <v>700047.7199676917</v>
+        <v>706329.6857603099</v>
       </c>
       <c r="C91" t="n">
         <v>878750.03788</v>
@@ -1451,7 +1451,7 @@
         <v>42826</v>
       </c>
       <c r="B92" t="n">
-        <v>884948.6953213275</v>
+        <v>890949.2695409255</v>
       </c>
       <c r="C92" t="n">
         <v>1463083.962459</v>
@@ -1462,7 +1462,7 @@
         <v>42827</v>
       </c>
       <c r="B93" t="n">
-        <v>944239.8409286238</v>
+        <v>950318.2104575376</v>
       </c>
       <c r="C93" t="n">
         <v>1138650.058898</v>
@@ -1473,7 +1473,7 @@
         <v>42828</v>
       </c>
       <c r="B94" t="n">
-        <v>739050.5401279811</v>
+        <v>745340.7314107178</v>
       </c>
       <c r="C94" t="n">
         <v>835191.622029</v>
@@ -1484,7 +1484,7 @@
         <v>42829</v>
       </c>
       <c r="B95" t="n">
-        <v>696266.8706485733</v>
+        <v>702782.7836618995</v>
       </c>
       <c r="C95" t="n">
         <v>835602.6360017</v>
@@ -1495,7 +1495,7 @@
         <v>42830</v>
       </c>
       <c r="B96" t="n">
-        <v>717256.0712520493</v>
+        <v>723694.7749486341</v>
       </c>
       <c r="C96" t="n">
         <v>846631.307907</v>
@@ -1506,7 +1506,7 @@
         <v>42831</v>
       </c>
       <c r="B97" t="n">
-        <v>639126.2196867652</v>
+        <v>645818.5353941413</v>
       </c>
       <c r="C97" t="n">
         <v>683059.570103</v>
@@ -1517,7 +1517,7 @@
         <v>42832</v>
       </c>
       <c r="B98" t="n">
-        <v>707646.5002202033</v>
+        <v>714234.9356585427</v>
       </c>
       <c r="C98" t="n">
         <v>765502.211925</v>
@@ -1528,7 +1528,7 @@
         <v>42833</v>
       </c>
       <c r="B99" t="n">
-        <v>894704.5711897858</v>
+        <v>901039.9048474829</v>
       </c>
       <c r="C99" t="n">
         <v>988591.469958</v>
@@ -1539,7 +1539,7 @@
         <v>42834</v>
       </c>
       <c r="B100" t="n">
-        <v>955697.149431678</v>
+        <v>962127.9286301429</v>
       </c>
       <c r="C100" t="n">
         <v>1101713.657101</v>
@@ -1550,7 +1550,7 @@
         <v>42835</v>
       </c>
       <c r="B101" t="n">
-        <v>751721.8842898514</v>
+        <v>758371.1976261468</v>
       </c>
       <c r="C101" t="n">
         <v>739392.130988</v>
@@ -1561,7 +1561,7 @@
         <v>42836</v>
       </c>
       <c r="B102" t="n">
-        <v>709647.1670815411</v>
+        <v>716518.0130579595</v>
       </c>
       <c r="C102" t="n">
         <v>741331.430196</v>
@@ -1572,7 +1572,7 @@
         <v>42837</v>
       </c>
       <c r="B103" t="n">
-        <v>730836.6596149495</v>
+        <v>737615.5697680608</v>
       </c>
       <c r="C103" t="n">
         <v>791762.312883</v>
@@ -1583,7 +1583,7 @@
         <v>42838</v>
       </c>
       <c r="B104" t="n">
-        <v>652408.6506278276</v>
+        <v>659416.5838838151</v>
       </c>
       <c r="C104" t="n">
         <v>737029.5651830001</v>
@@ -1594,7 +1594,7 @@
         <v>42839</v>
       </c>
       <c r="B105" t="n">
-        <v>720155.6374212434</v>
+        <v>727026.1992415402</v>
       </c>
       <c r="C105" t="n">
         <v>740889.4868289999</v>
@@ -1605,7 +1605,7 @@
         <v>42840</v>
       </c>
       <c r="B106" t="n">
-        <v>906000.6718349518</v>
+        <v>912576.9497094275</v>
       </c>
       <c r="C106" t="n">
         <v>898610.217928</v>
@@ -1616,7 +1616,7 @@
         <v>42841</v>
       </c>
       <c r="B107" t="n">
-        <v>965386.6248226801</v>
+        <v>972010.896409127</v>
       </c>
       <c r="C107" t="n">
         <v>985493.795113</v>
@@ -1627,7 +1627,7 @@
         <v>42842</v>
       </c>
       <c r="B108" t="n">
-        <v>759466.4871409484</v>
+        <v>766257.1560499854</v>
       </c>
       <c r="C108" t="n">
         <v>775916.9059055001</v>
@@ -1638,7 +1638,7 @@
         <v>42843</v>
       </c>
       <c r="B109" t="n">
-        <v>715171.402790651</v>
+        <v>722128.4796300648</v>
       </c>
       <c r="C109" t="n">
         <v>717196.315762</v>
@@ -1649,7 +1649,7 @@
         <v>42844</v>
       </c>
       <c r="B110" t="n">
-        <v>733933.2739555023</v>
+        <v>740742.0583506905</v>
       </c>
       <c r="C110" t="n">
         <v>735733.2142477001</v>
@@ -1660,7 +1660,7 @@
         <v>42845</v>
       </c>
       <c r="B111" t="n">
-        <v>652942.1041127844</v>
+        <v>659924.0834889635</v>
       </c>
       <c r="C111" t="n">
         <v>675804.0219027</v>
@@ -1671,7 +1671,7 @@
         <v>42846</v>
       </c>
       <c r="B112" t="n">
-        <v>718063.535379017</v>
+        <v>724854.5547880932</v>
       </c>
       <c r="C112" t="n">
         <v>795795.893872</v>
@@ -1682,7 +1682,7 @@
         <v>42847</v>
       </c>
       <c r="B113" t="n">
-        <v>901293.1772551602</v>
+        <v>907740.1741389203</v>
       </c>
       <c r="C113" t="n">
         <v>974952.817869</v>
@@ -1693,7 +1693,7 @@
         <v>42848</v>
       </c>
       <c r="B114" t="n">
-        <v>958143.9366457537</v>
+        <v>964594.500691709</v>
       </c>
       <c r="C114" t="n">
         <v>1140070.2748035</v>
@@ -1704,7 +1704,7 @@
         <v>42849</v>
       </c>
       <c r="B115" t="n">
-        <v>749834.5183288384</v>
+        <v>756413.6366616613</v>
       </c>
       <c r="C115" t="n">
         <v>755072.530945</v>
@@ -1715,7 +1715,7 @@
         <v>42850</v>
       </c>
       <c r="B116" t="n">
-        <v>703355.8388366055</v>
+        <v>710071.1506124043</v>
       </c>
       <c r="C116" t="n">
         <v>718996.080637</v>
@@ -1726,7 +1726,7 @@
         <v>42851</v>
       </c>
       <c r="B117" t="n">
-        <v>720192.2322596421</v>
+        <v>726737.4558313217</v>
       </c>
       <c r="C117" t="n">
         <v>781159.2829995001</v>
@@ -1737,7 +1737,7 @@
         <v>42852</v>
       </c>
       <c r="B118" t="n">
-        <v>637577.646901458</v>
+        <v>644283.2035523026</v>
       </c>
       <c r="C118" t="n">
         <v>624910.0260955</v>
@@ -1748,7 +1748,7 @@
         <v>42853</v>
       </c>
       <c r="B119" t="n">
-        <v>701412.3128159044</v>
+        <v>707923.2100571521</v>
       </c>
       <c r="C119" t="n">
         <v>797636.6251025</v>
@@ -1759,7 +1759,7 @@
         <v>42854</v>
       </c>
       <c r="B120" t="n">
-        <v>883716.4926399291</v>
+        <v>889888.7699077837</v>
       </c>
       <c r="C120" t="n">
         <v>1068279.815941</v>
@@ -1770,7 +1770,7 @@
         <v>42855</v>
       </c>
       <c r="B121" t="n">
-        <v>940017.5318865579</v>
+        <v>946207.5376954413</v>
       </c>
       <c r="C121" t="n">
         <v>1041249.2479705</v>
@@ -1781,7 +1781,7 @@
         <v>42856</v>
       </c>
       <c r="B122" t="n">
-        <v>731538.3753012266</v>
+        <v>737879.2446836773</v>
       </c>
       <c r="C122" t="n">
         <v>1306699.366897</v>
@@ -1792,7 +1792,7 @@
         <v>42857</v>
       </c>
       <c r="B123" t="n">
-        <v>685264.2811174891</v>
+        <v>691770.9454353446</v>
       </c>
       <c r="C123" t="n">
         <v>907324.094113</v>
@@ -1803,7 +1803,7 @@
         <v>42858</v>
       </c>
       <c r="B124" t="n">
-        <v>702664.5926294922</v>
+        <v>709036.9921350693</v>
       </c>
       <c r="C124" t="n">
         <v>924247.257204</v>
@@ -1814,7 +1814,7 @@
         <v>42859</v>
       </c>
       <c r="B125" t="n">
-        <v>620949.7397568456</v>
+        <v>627523.2690950902</v>
       </c>
       <c r="C125" t="n">
         <v>716654.608983</v>
@@ -1825,7 +1825,7 @@
         <v>42860</v>
       </c>
       <c r="B126" t="n">
-        <v>685988.9182007774</v>
+        <v>692412.1728488595</v>
       </c>
       <c r="C126" t="n">
         <v>780798.407016</v>
@@ -1836,7 +1836,7 @@
         <v>42861</v>
       </c>
       <c r="B127" t="n">
-        <v>869765.0211681803</v>
+        <v>875896.1513171957</v>
       </c>
       <c r="C127" t="n">
         <v>1039417.861868</v>
@@ -1847,7 +1847,7 @@
         <v>42862</v>
       </c>
       <c r="B128" t="n">
-        <v>927762.9986561836</v>
+        <v>933958.9418331503</v>
       </c>
       <c r="C128" t="n">
         <v>1227380.607924</v>
@@ -1858,7 +1858,7 @@
         <v>42863</v>
       </c>
       <c r="B129" t="n">
-        <v>721159.7673498981</v>
+        <v>727552.7293720304</v>
       </c>
       <c r="C129" t="n">
         <v>776307.495015</v>
@@ -1869,7 +1869,7 @@
         <v>42864</v>
       </c>
       <c r="B130" t="n">
-        <v>676892.3584476142</v>
+        <v>683494.8740689462</v>
       </c>
       <c r="C130" t="n">
         <v>715811.198881</v>
@@ -1880,7 +1880,7 @@
         <v>42865</v>
       </c>
       <c r="B131" t="n">
-        <v>696381.1187086469</v>
+        <v>702889.3601659433</v>
       </c>
       <c r="C131" t="n">
         <v>766101.907094</v>
@@ -1891,7 +1891,7 @@
         <v>42866</v>
       </c>
       <c r="B132" t="n">
-        <v>616788.0950379289</v>
+        <v>623532.4551504548</v>
       </c>
       <c r="C132" t="n">
         <v>648650.413039</v>
@@ -1902,7 +1902,7 @@
         <v>42867</v>
       </c>
       <c r="B133" t="n">
-        <v>683936.0108305586</v>
+        <v>690559.0238725403</v>
       </c>
       <c r="C133" t="n">
         <v>764812.415784</v>
@@ -1913,7 +1913,7 @@
         <v>42868</v>
       </c>
       <c r="B134" t="n">
-        <v>869764.3738001247</v>
+        <v>876117.2747916088</v>
       </c>
       <c r="C134" t="n">
         <v>1116976.891153</v>
@@ -1924,7 +1924,7 @@
         <v>42869</v>
       </c>
       <c r="B135" t="n">
-        <v>929718.8601168157</v>
+        <v>936151.0470821736</v>
       </c>
       <c r="C135" t="n">
         <v>884199.9138385</v>
@@ -1935,7 +1935,7 @@
         <v>42870</v>
       </c>
       <c r="B136" t="n">
-        <v>724942.0735938046</v>
+        <v>731577.8349575975</v>
       </c>
       <c r="C136" t="n">
         <v>823035.572122</v>
@@ -1946,7 +1946,7 @@
         <v>42871</v>
       </c>
       <c r="B137" t="n">
-        <v>682342.3493609374</v>
+        <v>689186.1799806176</v>
       </c>
       <c r="C137" t="n">
         <v>807803.8950783</v>
@@ -1957,7 +1957,7 @@
         <v>42872</v>
       </c>
       <c r="B138" t="n">
-        <v>703317.4062311578</v>
+        <v>710057.5722208651</v>
       </c>
       <c r="C138" t="n">
         <v>841407.607944</v>
@@ -1968,7 +1968,7 @@
         <v>42873</v>
       </c>
       <c r="B139" t="n">
-        <v>625012.9738924734</v>
+        <v>631972.344897414</v>
       </c>
       <c r="C139" t="n">
         <v>628487.9899620001</v>
@@ -1979,7 +1979,7 @@
         <v>42874</v>
       </c>
       <c r="B140" t="n">
-        <v>693241.8057970292</v>
+        <v>700056.0102453551</v>
       </c>
       <c r="C140" t="n">
         <v>773775.4378677</v>
@@ -1990,7 +1990,7 @@
         <v>42875</v>
       </c>
       <c r="B141" t="n">
-        <v>879939.6266178512</v>
+        <v>886453.8234410303</v>
       </c>
       <c r="C141" t="n">
         <v>1035667.381833</v>
@@ -2001,7 +2001,7 @@
         <v>42876</v>
       </c>
       <c r="B142" t="n">
-        <v>940554.1742475565</v>
+        <v>947112.6992163133</v>
       </c>
       <c r="C142" t="n">
         <v>1201938.886229</v>
@@ -2012,7 +2012,7 @@
         <v>42877</v>
       </c>
       <c r="B143" t="n">
-        <v>736235.4555151464</v>
+        <v>742958.6989014398</v>
       </c>
       <c r="C143" t="n">
         <v>778935.156126</v>
@@ -2023,7 +2023,7 @@
         <v>42878</v>
       </c>
       <c r="B144" t="n">
-        <v>693903.9099682119</v>
+        <v>700793.7446760702</v>
       </c>
       <c r="C144" t="n">
         <v>723151.767982</v>
@@ -2034,7 +2034,7 @@
         <v>42879</v>
       </c>
       <c r="B145" t="n">
-        <v>714973.314295376</v>
+        <v>721716.7314852057</v>
       </c>
       <c r="C145" t="n">
         <v>746303.6271255</v>
@@ -2045,7 +2045,7 @@
         <v>42880</v>
       </c>
       <c r="B146" t="n">
-        <v>636608.5843289143</v>
+        <v>643528.5533777855</v>
       </c>
       <c r="C146" t="n">
         <v>620108.24391</v>
@@ -2056,7 +2056,7 @@
         <v>42881</v>
       </c>
       <c r="B147" t="n">
-        <v>704643.9176038742</v>
+        <v>711377.5254688939</v>
       </c>
       <c r="C147" t="n">
         <v>984511.1521135001</v>
@@ -2067,7 +2067,7 @@
         <v>42882</v>
       </c>
       <c r="B148" t="n">
-        <v>891037.857633389</v>
+        <v>897433.0220089132</v>
       </c>
       <c r="C148" t="n">
         <v>932219.893144</v>
@@ -2078,7 +2078,7 @@
         <v>42883</v>
       </c>
       <c r="B149" t="n">
-        <v>951261.4712308635</v>
+        <v>957666.4878665006</v>
       </c>
       <c r="C149" t="n">
         <v>1061771.636907</v>
@@ -2089,7 +2089,7 @@
         <v>42884</v>
       </c>
       <c r="B150" t="n">
-        <v>746487.7874529101</v>
+        <v>753028.0718028856</v>
       </c>
       <c r="C150" t="n">
         <v>776813.137038</v>
@@ -2100,7 +2100,7 @@
         <v>42885</v>
       </c>
       <c r="B151" t="n">
-        <v>703659.2189563186</v>
+        <v>710342.5658860112</v>
       </c>
       <c r="C151" t="n">
         <v>742471.2769905</v>
@@ -2111,7 +2111,7 @@
         <v>42886</v>
       </c>
       <c r="B152" t="n">
-        <v>724209.8210499354</v>
+        <v>730729.8451788906</v>
       </c>
       <c r="C152" t="n">
         <v>858062.149411</v>
@@ -2122,7 +2122,7 @@
         <v>42887</v>
       </c>
       <c r="B153" t="n">
-        <v>645322.5636316646</v>
+        <v>652009.343502071</v>
       </c>
       <c r="C153" t="n">
         <v>766859.1728450001</v>
@@ -2133,7 +2133,7 @@
         <v>42888</v>
       </c>
       <c r="B154" t="n">
-        <v>712847.0722723614</v>
+        <v>719345.0603453536</v>
       </c>
       <c r="C154" t="n">
         <v>918421.319125</v>
@@ -2144,7 +2144,7 @@
         <v>42889</v>
       </c>
       <c r="B155" t="n">
-        <v>898754.4276060651</v>
+        <v>904918.9277809262</v>
       </c>
       <c r="C155" t="n">
         <v>1176138.109152</v>
@@ -2155,7 +2155,7 @@
         <v>42890</v>
       </c>
       <c r="B156" t="n">
-        <v>958525.2169184674</v>
+        <v>964711.6973855593</v>
       </c>
       <c r="C156" t="n">
         <v>1376511.520495</v>
@@ -2166,7 +2166,7 @@
         <v>42891</v>
       </c>
       <c r="B157" t="n">
-        <v>753338.9836766586</v>
+        <v>759679.5926259254</v>
       </c>
       <c r="C157" t="n">
         <v>912693.8511</v>
@@ -2177,7 +2177,7 @@
         <v>42892</v>
       </c>
       <c r="B158" t="n">
-        <v>710141.7878370293</v>
+        <v>716650.4027788402</v>
       </c>
       <c r="C158" t="n">
         <v>805546.6479559999</v>
@@ -2188,7 +2188,7 @@
         <v>42893</v>
       </c>
       <c r="B159" t="n">
-        <v>730368.7195204383</v>
+        <v>736744.1992924729</v>
       </c>
       <c r="C159" t="n">
         <v>842979.8370823</v>
@@ -2199,7 +2199,7 @@
         <v>42894</v>
       </c>
       <c r="B160" t="n">
-        <v>651201.5244056558</v>
+        <v>657778.1928145122</v>
       </c>
       <c r="C160" t="n">
         <v>667099.8010250001</v>
@@ -2210,7 +2210,7 @@
         <v>42895</v>
       </c>
       <c r="B161" t="n">
-        <v>718486.7768606213</v>
+        <v>724912.2048113192</v>
       </c>
       <c r="C161" t="n">
         <v>795116.1360699</v>
@@ -2221,7 +2221,7 @@
         <v>42896</v>
       </c>
       <c r="B162" t="n">
-        <v>904191.1671066764</v>
+        <v>910322.5587122061</v>
       </c>
       <c r="C162" t="n">
         <v>993732.684049</v>
@@ -2232,7 +2232,7 @@
         <v>42897</v>
       </c>
       <c r="B163" t="n">
-        <v>963790.07179702</v>
+        <v>969983.5249107659</v>
       </c>
       <c r="C163" t="n">
         <v>1213673.946877</v>
@@ -2243,7 +2243,7 @@
         <v>42898</v>
       </c>
       <c r="B164" t="n">
-        <v>758457.5284964667</v>
+        <v>764844.5385817519</v>
       </c>
       <c r="C164" t="n">
         <v>768349.7589516999</v>
@@ -2254,7 +2254,7 @@
         <v>42899</v>
       </c>
       <c r="B165" t="n">
-        <v>715134.3019467834</v>
+        <v>721726.8401573669</v>
       </c>
       <c r="C165" t="n">
         <v>729412.959849</v>
@@ -2265,7 +2265,7 @@
         <v>42900</v>
       </c>
       <c r="B166" t="n">
-        <v>735250.8609436718</v>
+        <v>741744.6943347855</v>
       </c>
       <c r="C166" t="n">
         <v>785885.9088963</v>
@@ -2276,7 +2276,7 @@
         <v>42901</v>
       </c>
       <c r="B167" t="n">
-        <v>655985.4025913428</v>
+        <v>662710.6830280195</v>
       </c>
       <c r="C167" t="n">
         <v>660338.346974</v>
@@ -2287,7 +2287,7 @@
         <v>42902</v>
       </c>
       <c r="B168" t="n">
-        <v>723182.3413013604</v>
+        <v>729781.5263888518</v>
       </c>
       <c r="C168" t="n">
         <v>834786.4275550001</v>
@@ -2298,7 +2298,7 @@
         <v>42903</v>
       </c>
       <c r="B169" t="n">
-        <v>908807.8138821837</v>
+        <v>915132.2208521728</v>
       </c>
       <c r="C169" t="n">
         <v>1096133.5508865</v>
@@ -2309,7 +2309,7 @@
         <v>42904</v>
       </c>
       <c r="B170" t="n">
-        <v>968338.3593852349</v>
+        <v>974737.6169399465</v>
       </c>
       <c r="C170" t="n">
         <v>965144.121179</v>
@@ -2320,7 +2320,7 @@
         <v>42905</v>
       </c>
       <c r="B171" t="n">
-        <v>762950.888175802</v>
+        <v>769549.6490555843</v>
       </c>
       <c r="C171" t="n">
         <v>791146.393731</v>
@@ -2331,7 +2331,7 @@
         <v>42906</v>
       </c>
       <c r="B172" t="n">
-        <v>719590.6269861484</v>
+        <v>726393.8654732249</v>
       </c>
       <c r="C172" t="n">
         <v>787326.7170395</v>
@@ -2342,7 +2342,7 @@
         <v>42907</v>
       </c>
       <c r="B173" t="n">
-        <v>739693.862664443</v>
+        <v>746390.4179791722</v>
       </c>
       <c r="C173" t="n">
         <v>766159.0112892</v>
@@ -2353,7 +2353,7 @@
         <v>42908</v>
       </c>
       <c r="B174" t="n">
-        <v>660445.6301187</v>
+        <v>667359.015228505</v>
       </c>
       <c r="C174" t="n">
         <v>609868.8309586</v>
@@ -2364,7 +2364,7 @@
         <v>42909</v>
       </c>
       <c r="B175" t="n">
-        <v>727697.7751390359</v>
+        <v>734464.3073951195</v>
       </c>
       <c r="C175" t="n">
         <v>761049.7450639</v>
@@ -2375,7 +2375,7 @@
         <v>42910</v>
       </c>
       <c r="B176" t="n">
-        <v>913423.9608595727</v>
+        <v>919889.5088373859</v>
       </c>
       <c r="C176" t="n">
         <v>963268.2271350001</v>
@@ -2386,7 +2386,7 @@
         <v>42911</v>
       </c>
       <c r="B177" t="n">
-        <v>973107.7974186824</v>
+        <v>979617.4029614995</v>
       </c>
       <c r="C177" t="n">
         <v>1092610.858614</v>
@@ -2397,7 +2397,7 @@
         <v>42912</v>
       </c>
       <c r="B178" t="n">
-        <v>767932.2329109</v>
+        <v>774606.9658792847</v>
       </c>
       <c r="C178" t="n">
         <v>755367.8450665</v>
@@ -2408,7 +2408,7 @@
         <v>42913</v>
       </c>
       <c r="B179" t="n">
-        <v>724846.917865902</v>
+        <v>731689.2834440406</v>
       </c>
       <c r="C179" t="n">
         <v>682218.468913</v>
@@ -2419,7 +2419,7 @@
         <v>42914</v>
       </c>
       <c r="B180" t="n">
-        <v>745290.392372906</v>
+        <v>751987.9485599205</v>
       </c>
       <c r="C180" t="n">
         <v>731896.9850104999</v>
@@ -2430,7 +2430,7 @@
         <v>42915</v>
       </c>
       <c r="B181" t="n">
-        <v>666447.26768245</v>
+        <v>673323.4702938783</v>
       </c>
       <c r="C181" t="n">
         <v>630811.802872</v>
@@ -2441,7 +2441,7 @@
         <v>42916</v>
       </c>
       <c r="B182" t="n">
-        <v>734165.8582308488</v>
+        <v>740858.1888277506</v>
       </c>
       <c r="C182" t="n">
         <v>802273.1392327</v>
@@ -2452,7 +2452,7 @@
         <v>42917</v>
       </c>
       <c r="B183" t="n">
-        <v>920412.8560631071</v>
+        <v>926769.5274110292</v>
       </c>
       <c r="C183" t="n">
         <v>1207529.921868</v>
@@ -2463,7 +2463,7 @@
         <v>42918</v>
       </c>
       <c r="B184" t="n">
-        <v>980661.2474662735</v>
+        <v>987030.7469619899</v>
       </c>
       <c r="C184" t="n">
         <v>1296379.2175535</v>
@@ -2474,7 +2474,7 @@
         <v>42919</v>
       </c>
       <c r="B185" t="n">
-        <v>776079.6263427652</v>
+        <v>782587.4575131453</v>
       </c>
       <c r="C185" t="n">
         <v>925143.408816</v>
@@ -2485,7 +2485,7 @@
         <v>42920</v>
       </c>
       <c r="B186" t="n">
-        <v>733599.6284967639</v>
+        <v>740253.5740999707</v>
       </c>
       <c r="C186" t="n">
         <v>832359.2860137</v>
@@ -2496,7 +2496,7 @@
         <v>42921</v>
       </c>
       <c r="B187" t="n">
-        <v>754638.3427963823</v>
+        <v>761131.9117918207</v>
       </c>
       <c r="C187" t="n">
         <v>844301.613116</v>
@@ -2507,7 +2507,7 @@
         <v>42922</v>
       </c>
       <c r="B188" t="n">
-        <v>676355.8724089942</v>
+        <v>683018.9535704668</v>
       </c>
       <c r="C188" t="n">
         <v>700272.0099567</v>
@@ -2518,7 +2518,7 @@
         <v>42923</v>
       </c>
       <c r="B189" t="n">
-        <v>744573.4977173401</v>
+        <v>751050.2813942843</v>
       </c>
       <c r="C189" t="n">
         <v>805792.302193</v>
@@ -2529,7 +2529,7 @@
         <v>42924</v>
       </c>
       <c r="B190" t="n">
-        <v>931229.0228353853</v>
+        <v>937374.4919977388</v>
       </c>
       <c r="C190" t="n">
         <v>998347.1930085</v>
@@ -2540,7 +2540,7 @@
         <v>42925</v>
       </c>
       <c r="B191" t="n">
-        <v>991765.4899086882</v>
+        <v>997934.7476870328</v>
       </c>
       <c r="C191" t="n">
         <v>1100833.322376</v>
@@ -2551,7 +2551,7 @@
         <v>42926</v>
       </c>
       <c r="B192" t="n">
-        <v>787321.3949463804</v>
+        <v>793646.1955733827</v>
       </c>
       <c r="C192" t="n">
         <v>804158.8610365</v>
@@ -2562,7 +2562,7 @@
         <v>42927</v>
       </c>
       <c r="B193" t="n">
-        <v>744799.1039165469</v>
+        <v>751292.9172168688</v>
       </c>
       <c r="C193" t="n">
         <v>730534.767701</v>
@@ -2573,7 +2573,7 @@
         <v>42928</v>
       </c>
       <c r="B194" t="n">
-        <v>765588.2957405581</v>
+        <v>771949.5736615065</v>
       </c>
       <c r="C194" t="n">
         <v>748799.9959087</v>
@@ -2584,7 +2584,7 @@
         <v>42929</v>
       </c>
       <c r="B195" t="n">
-        <v>686824.5730180515</v>
+        <v>693387.246616531</v>
       </c>
       <c r="C195" t="n">
         <v>629651.3629294999</v>
@@ -2595,7 +2595,7 @@
         <v>42930</v>
       </c>
       <c r="B196" t="n">
-        <v>754308.6576969384</v>
+        <v>760719.930969015</v>
       </c>
       <c r="C196" t="n">
         <v>765489.6173932999</v>
@@ -2606,7 +2606,7 @@
         <v>42931</v>
       </c>
       <c r="B197" t="n">
-        <v>939962.7182700457</v>
+        <v>946079.4639295896</v>
       </c>
       <c r="C197" t="n">
         <v>969077.125075</v>
@@ -2617,7 +2617,7 @@
         <v>42932</v>
       </c>
       <c r="B198" t="n">
-        <v>999219.9775550255</v>
+        <v>1005398.004911416</v>
       </c>
       <c r="C198" t="n">
         <v>1100803.699023</v>
@@ -2628,7 +2628,7 @@
         <v>42933</v>
       </c>
       <c r="B199" t="n">
-        <v>793215.7010609143</v>
+        <v>799586.2647179801</v>
       </c>
       <c r="C199" t="n">
         <v>818325.522149</v>
@@ -2639,7 +2639,7 @@
         <v>42934</v>
       </c>
       <c r="B200" t="n">
-        <v>748856.233454683</v>
+        <v>755431.1136175713</v>
       </c>
       <c r="C200" t="n">
         <v>730133.70894</v>
@@ -2650,7 +2650,7 @@
         <v>42935</v>
       </c>
       <c r="B201" t="n">
-        <v>767542.8821985291</v>
+        <v>774017.7045261153</v>
       </c>
       <c r="C201" t="n">
         <v>767978.7780779999</v>
@@ -2661,7 +2661,7 @@
         <v>42936</v>
       </c>
       <c r="B202" t="n">
-        <v>686430.7662534287</v>
+        <v>693135.5879426547</v>
       </c>
       <c r="C202" t="n">
         <v>688288.067857</v>
@@ -2672,7 +2672,7 @@
         <v>42937</v>
       </c>
       <c r="B203" t="n">
-        <v>751348.0296813366</v>
+        <v>757925.2553224247</v>
       </c>
       <c r="C203" t="n">
         <v>782418.2992188</v>
@@ -2683,7 +2683,7 @@
         <v>42938</v>
       </c>
       <c r="B204" t="n">
-        <v>934251.9555955224</v>
+        <v>940552.884030104</v>
       </c>
       <c r="C204" t="n">
         <v>932902.046681</v>
@@ -2694,7 +2694,7 @@
         <v>42939</v>
       </c>
       <c r="B205" t="n">
-        <v>990618.1252079949</v>
+        <v>996992.3927616618</v>
       </c>
       <c r="C205" t="n">
         <v>1024288.741245</v>
@@ -2705,7 +2705,7 @@
         <v>42940</v>
       </c>
       <c r="B206" t="n">
-        <v>781630.7248186435</v>
+        <v>788203.0080985981</v>
       </c>
       <c r="C206" t="n">
         <v>816564.327096</v>
@@ -2716,7 +2716,7 @@
         <v>42941</v>
       </c>
       <c r="B207" t="n">
-        <v>734250.6783833567</v>
+        <v>741025.9813177395</v>
       </c>
       <c r="C207" t="n">
         <v>713581.632609</v>
@@ -2727,7 +2727,7 @@
         <v>42942</v>
       </c>
       <c r="B208" t="n">
-        <v>749938.4220528642</v>
+        <v>756605.6086126713</v>
       </c>
       <c r="C208" t="n">
         <v>740653.044167</v>
@@ -2738,7 +2738,7 @@
         <v>42943</v>
       </c>
       <c r="B209" t="n">
-        <v>665911.4627247097</v>
+        <v>672794.0553355123</v>
       </c>
       <c r="C209" t="n">
         <v>659849.8270588</v>
@@ -2749,7 +2749,7 @@
         <v>42944</v>
       </c>
       <c r="B210" t="n">
-        <v>728062.1509154126</v>
+        <v>734796.4514454537</v>
       </c>
       <c r="C210" t="n">
         <v>835099.6822034999</v>
@@ -2760,7 +2760,7 @@
         <v>42945</v>
       </c>
       <c r="B211" t="n">
-        <v>908412.2394031634</v>
+        <v>914844.067542691</v>
       </c>
       <c r="C211" t="n">
         <v>1032310.865737</v>
@@ -2771,7 +2771,7 @@
         <v>42946</v>
       </c>
       <c r="B212" t="n">
-        <v>962500.412989911</v>
+        <v>968974.7214119362</v>
       </c>
       <c r="C212" t="n">
         <v>1123752.4779517</v>
@@ -2782,7 +2782,7 @@
         <v>42947</v>
       </c>
       <c r="B213" t="n">
-        <v>751570.9362947063</v>
+        <v>758208.6604293413</v>
       </c>
       <c r="C213" t="n">
         <v>885856.8408705</v>
@@ -2793,7 +2793,7 @@
         <v>42948</v>
       </c>
       <c r="B214" t="n">
-        <v>702640.1435401473</v>
+        <v>709443.6060705088</v>
       </c>
       <c r="C214" t="n">
         <v>988527.763204</v>
@@ -2804,7 +2804,7 @@
         <v>42949</v>
       </c>
       <c r="B215" t="n">
-        <v>717217.6339043326</v>
+        <v>723874.1617886994</v>
       </c>
       <c r="C215" t="n">
         <v>964712.016051</v>
@@ -2815,7 +2815,7 @@
         <v>42950</v>
       </c>
       <c r="B216" t="n">
-        <v>632562.3611946322</v>
+        <v>639395.1326311606</v>
       </c>
       <c r="C216" t="n">
         <v>728068.4851319999</v>
@@ -2826,7 +2826,7 @@
         <v>42951</v>
       </c>
       <c r="B217" t="n">
-        <v>694599.0929171427</v>
+        <v>701245.2696724373</v>
       </c>
       <c r="C217" t="n">
         <v>827775.686128</v>
@@ -2837,7 +2837,7 @@
         <v>42952</v>
       </c>
       <c r="B218" t="n">
-        <v>875371.8516769528</v>
+        <v>881679.2912985553</v>
       </c>
       <c r="C218" t="n">
         <v>965693.650492</v>
@@ -2848,7 +2848,7 @@
         <v>42953</v>
       </c>
       <c r="B219" t="n">
-        <v>930430.5611191289</v>
+        <v>936747.3693060798</v>
       </c>
       <c r="C219" t="n">
         <v>1049559.164277</v>
@@ -2859,7 +2859,7 @@
         <v>42954</v>
       </c>
       <c r="B220" t="n">
-        <v>721019.074387454</v>
+        <v>727470.3573849885</v>
       </c>
       <c r="C220" t="n">
         <v>797464.963817</v>
@@ -2870,7 +2870,7 @@
         <v>42955</v>
       </c>
       <c r="B221" t="n">
-        <v>674141.3332501277</v>
+        <v>680734.4734956215</v>
       </c>
       <c r="C221" t="n">
         <v>717766.3491055</v>
@@ -2881,7 +2881,7 @@
         <v>42956</v>
       </c>
       <c r="B222" t="n">
-        <v>691282.5379503275</v>
+        <v>697710.6548806549</v>
       </c>
       <c r="C222" t="n">
         <v>734139.67401</v>
@@ -2892,7 +2892,7 @@
         <v>42957</v>
       </c>
       <c r="B223" t="n">
-        <v>609665.5246505656</v>
+        <v>616258.1430492268</v>
       </c>
       <c r="C223" t="n">
         <v>651386.9119697</v>
@@ -2903,7 +2903,7 @@
         <v>42958</v>
       </c>
       <c r="B224" t="n">
-        <v>675167.8248751948</v>
+        <v>681568.8118424782</v>
       </c>
       <c r="C224" t="n">
         <v>826373.722022</v>
@@ -2914,7 +2914,7 @@
         <v>42959</v>
       </c>
       <c r="B225" t="n">
-        <v>859776.0102973835</v>
+        <v>865840.0815468348</v>
       </c>
       <c r="C225" t="n">
         <v>792630.5350785</v>
@@ -2925,7 +2925,7 @@
         <v>42960</v>
       </c>
       <c r="B226" t="n">
-        <v>918973.5266635148</v>
+        <v>925055.5889282149</v>
       </c>
       <c r="C226" t="n">
         <v>865639.677471</v>
@@ -2936,7 +2936,7 @@
         <v>42961</v>
       </c>
       <c r="B227" t="n">
-        <v>713930.167969649</v>
+        <v>720161.8640144684</v>
       </c>
       <c r="C227" t="n">
         <v>760922.4060808</v>
@@ -2947,7 +2947,7 @@
         <v>42962</v>
       </c>
       <c r="B228" t="n">
-        <v>671569.904348165</v>
+        <v>677964.6903566667</v>
       </c>
       <c r="C228" t="n">
         <v>762661.935939</v>
